--- a/process/Project Backlog.xlsx
+++ b/process/Project Backlog.xlsx
@@ -8,13 +8,14 @@
   <sheets>
     <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="1st Sprint Backlog" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2nd Sprint Backlog" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Sprint</t>
   </si>
@@ -200,6 +201,36 @@
   </si>
   <si>
     <t xml:space="preserve">Create report and add chapters, create README</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement essential Telegram API methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Telegram API methods implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rossi, Boschi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define and implement case classes for interested entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start bot logic implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begin works on update fetching in polling mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert update JSON to model object</t>
+  </si>
+  <si>
+    <t>Boschi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a TDD methodology for the above activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve GitHub Actions matrix expansion</t>
   </si>
 </sst>
 </file>
@@ -221,11 +252,11 @@
       <name val="Arial"/>
       <color theme="1"/>
     </font>
+    <font/>
     <font>
       <name val="Arial"/>
       <color indexed="64"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -253,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -267,15 +298,18 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,6 +832,7 @@
     <col bestFit="1" customWidth="1" min="2" max="2" width="56.57"/>
     <col bestFit="1" customWidth="1" min="3" max="3" width="69.709999999999994"/>
     <col bestFit="1" customWidth="1" min="4" max="4" width="18.859999999999999"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="18.140000000000001"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -885,7 +920,9 @@
       <c r="E3" s="4">
         <v>40</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4">
+        <v>20</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -911,7 +948,9 @@
       <c r="E5" s="4">
         <v>35</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -934,6 +973,9 @@
       <c r="E7" s="5">
         <v>15</v>
       </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4">
@@ -951,10 +993,12 @@
       <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9">
       <c r="C9" s="5" t="s">
@@ -974,6 +1018,9 @@
       <c r="E10" s="5">
         <v>15</v>
       </c>
+      <c r="F10" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
@@ -988,6 +1035,9 @@
       <c r="E11" s="5">
         <v>19</v>
       </c>
+      <c r="F11" s="5">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
@@ -1005,6 +1055,18 @@
       <c r="E12" s="5">
         <v>0</v>
       </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
@@ -1019,6 +1081,9 @@
       <c r="E13" s="5">
         <v>8</v>
       </c>
+      <c r="F13" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4">
@@ -1036,7 +1101,9 @@
       <c r="E14" s="4">
         <v>20</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <v>15</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1059,6 +1126,18 @@
       <c r="E16" s="5">
         <v>0</v>
       </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4">
@@ -1076,7 +1155,9 @@
       <c r="E17" s="4">
         <v>5</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1100,7 +1181,7 @@
       <c r="A21" s="5">
         <v>12</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1110,6 +1191,9 @@
         <v>15</v>
       </c>
       <c r="E21" s="5">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5">
         <v>15</v>
       </c>
     </row>
@@ -1117,7 +1201,7 @@
       <c r="A22" s="5">
         <v>13</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1127,6 +1211,9 @@
         <v>5</v>
       </c>
       <c r="E22" s="5">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1143,7 +1230,10 @@
       <c r="D23" s="5">
         <v>15</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="5">
+        <v>15</v>
+      </c>
+      <c r="F23" s="5">
         <v>15</v>
       </c>
     </row>
@@ -1160,6 +1250,9 @@
       <c r="E24" s="5">
         <v>5</v>
       </c>
+      <c r="F24" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
@@ -1177,6 +1270,9 @@
       <c r="E25" s="5">
         <v>5</v>
       </c>
+      <c r="F25" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
@@ -1192,6 +1288,9 @@
         <v>10</v>
       </c>
       <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5">
         <v>10</v>
       </c>
     </row>
@@ -1503,7 +1602,7 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5">
@@ -1698,10 +1797,10 @@
       <c r="H14" s="5">
         <v>4</v>
       </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1727,10 +1826,10 @@
       <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1756,10 +1855,10 @@
       <c r="H16" s="5">
         <v>2</v>
       </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1785,10 +1884,10 @@
       <c r="H17" s="5">
         <v>4</v>
       </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1815,10 +1914,10 @@
         <v>4</v>
       </c>
       <c r="I18" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1892,13 +1991,13 @@
       <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="5">
         <v>1</v>
       </c>
       <c r="H21" s="5">
@@ -1926,4 +2025,286 @@
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="47.57"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="52.859999999999999"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="22.140000000000001"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="23.859999999999999"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="4">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="7">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="11">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11">
+        <v>10</v>
+      </c>
+      <c r="G6" s="11">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11">
+        <v>8</v>
+      </c>
+      <c r="I6" s="11">
+        <v>6</v>
+      </c>
+      <c r="J6" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="11">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>8</v>
+      </c>
+      <c r="G8" s="7">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="49">
+      <c r="H49" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H49:H53"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/process/Project Backlog.xlsx
+++ b/process/Project Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="110">
   <si>
     <t>Sprint</t>
   </si>
@@ -114,24 +114,21 @@
     <t>Refactor and clean-up code</t>
   </si>
   <si>
-    <t>Develop a system to provide fake updates for testing</t>
+    <t>Define a DSL for interacting with the Telegram API</t>
+  </si>
+  <si>
+    <t>Define a DSL that works on our Telegram API methods implementation (Optional)</t>
+  </si>
+  <si>
+    <t>Create some bots to showcase the library</t>
+  </si>
+  <si>
+    <t>Release on Maven Central</t>
   </si>
   <si>
     <t>(Optional)</t>
   </si>
   <si>
-    <t>Define a DSL for interacting with the Telegram API</t>
-  </si>
-  <si>
-    <t>Define a DSL that works on our Telegram API methods implementation (Optional)</t>
-  </si>
-  <si>
-    <t>Create some bots to showcase the library</t>
-  </si>
-  <si>
-    <t>Release on Maven Central</t>
-  </si>
-  <si>
     <t>Develop a system to work in webhook mode</t>
   </si>
   <si>
@@ -331,6 +328,27 @@
   </si>
   <si>
     <t>Refactor package structure to minimize imports for users of the library</t>
+  </si>
+  <si>
+    <t>Start working on the final report</t>
+  </si>
+  <si>
+    <t>Write down all the ScalaDoc</t>
+  </si>
+  <si>
+    <t>Boschi, Tumedei</t>
+  </si>
+  <si>
+    <t>Final considerations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup semantic versioning and scaladoc plugins </t>
+  </si>
+  <si>
+    <t>Setup and merge Dependabot PR</t>
+  </si>
+  <si>
+    <t>Refactor Github Actions workflow</t>
   </si>
 </sst>
 </file>
@@ -381,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -405,16 +423,16 @@
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -424,9 +442,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,10 +752,12 @@
       <c r="J2" s="3">
         <v>6.0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>7.0</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="4">
+        <v>8.0</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -790,53 +807,84 @@
       <c r="K3" s="5">
         <v>0.0</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="5">
         <v>2.0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>15.0</v>
+      <c r="D5" s="9">
+        <v>35.0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>35.0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D6" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6">
@@ -845,28 +893,31 @@
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="5">
         <v>15.0</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="5">
         <v>15.0</v>
       </c>
-      <c r="F7" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="F7" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -903,6 +954,9 @@
       </c>
       <c r="K8" s="5">
         <v>2.0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -917,28 +971,31 @@
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="5">
         <v>20.0</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="5">
         <v>20.0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
         <v>12.0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="5">
         <v>12.0</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="5">
         <v>12.0</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="5">
         <v>12.0</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="5">
         <v>7.0</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -949,28 +1006,33 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="5">
         <v>20.0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="5">
         <v>19.0</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="5">
         <v>19.0</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="5">
         <v>19.0</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="5">
         <v>19.0</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="5">
         <v>19.0</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="5">
         <v>19.0</v>
       </c>
-      <c r="K11" s="11"/>
+      <c r="K11" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6">
@@ -982,28 +1044,31 @@
       <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="K12" s="10">
+      <c r="D12" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -1014,29 +1079,32 @@
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="5">
         <v>15.0</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="5">
         <v>13.0</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="5">
         <v>13.0</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="5">
         <v>13.0</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="5">
         <v>13.0</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="5">
         <v>11.0</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="5">
         <v>6.0</v>
       </c>
-      <c r="K13" s="10">
-        <v>4.0</v>
+      <c r="K13" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -1050,28 +1118,31 @@
         <v>21</v>
       </c>
       <c r="D14" s="5">
-        <v>32.0</v>
+        <v>26.0</v>
       </c>
       <c r="E14" s="5">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="F14" s="5">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
       <c r="G14" s="5">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="H14" s="5">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="I14" s="5">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="J14" s="5">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="K14" s="5">
-        <v>11.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -1086,28 +1157,31 @@
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="5">
         <v>20.0</v>
       </c>
-      <c r="E16" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="10">
+      <c r="E16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -1115,7 +1189,7 @@
       <c r="A17" s="5">
         <v>11.0</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1144,6 +1218,9 @@
       </c>
       <c r="K17" s="5">
         <v>5.0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -1171,211 +1248,192 @@
       <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="5">
         <v>25.0</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="5">
         <v>25.0</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="5">
         <v>25.0</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="5">
         <v>20.0</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="5">
         <v>16.0</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="5">
         <v>6.0</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="5">
         <v>6.0</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="B22" s="12" t="s">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="I22" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="J22" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="K22" s="10">
-        <v>5.0</v>
+      <c r="D22" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="10">
-        <v>15.0</v>
-      </c>
-      <c r="E23" s="10">
-        <v>15.0</v>
-      </c>
-      <c r="F23" s="10">
-        <v>15.0</v>
-      </c>
-      <c r="G23" s="10">
-        <v>15.0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>15.0</v>
-      </c>
-      <c r="I23" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="J23" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="K23" s="10">
-        <v>11.0</v>
+      <c r="D23" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="G24" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="D24" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="J24" s="5">
         <v>3.0</v>
       </c>
-      <c r="I24" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="J24" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="K24" s="10">
-        <v>2.0</v>
+      <c r="K24" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="E25" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="F25" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="G25" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="H25" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="I25" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="J25" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="K25" s="10">
-        <v>3.0</v>
+        <v>35</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>10.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6">
-        <v>17.0</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="F26" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="G26" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="H26" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="I26" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="J26" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="K26" s="10">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" s="13"/>
+      <c r="C26" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="48">
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
@@ -1386,6 +1444,7 @@
     <mergeCell ref="I17:I20"/>
     <mergeCell ref="J17:J20"/>
     <mergeCell ref="K17:K20"/>
+    <mergeCell ref="L17:L20"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="D17:D20"/>
@@ -1398,6 +1457,7 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A3:A4"/>
@@ -1405,19 +1465,12 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D8:D9"/>
@@ -1449,7 +1502,7 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1470,16 +1523,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="3">
         <v>1.0</v>
@@ -1524,7 +1577,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6">
         <v>5.0</v>
@@ -1553,7 +1606,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6">
         <v>5.0</v>
@@ -1579,13 +1632,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="6">
         <v>2.0</v>
@@ -1611,10 +1664,10 @@
     </row>
     <row r="6">
       <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D6" s="6">
         <v>2.0</v>
@@ -1640,10 +1693,10 @@
     </row>
     <row r="7">
       <c r="B7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6">
         <v>4.0</v>
@@ -1672,10 +1725,10 @@
         <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6">
         <v>1.0</v>
@@ -1701,13 +1754,13 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6">
         <v>8.0</v>
@@ -1732,14 +1785,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6">
         <v>7.0</v>
@@ -1768,7 +1821,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6">
         <v>7.0</v>
@@ -1797,7 +1850,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6">
         <v>7.0</v>
@@ -1826,7 +1879,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="6">
         <v>7.0</v>
@@ -1855,10 +1908,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6">
         <v>4.0</v>
@@ -1884,10 +1937,10 @@
     </row>
     <row r="15">
       <c r="B15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="6">
         <v>2.0</v>
@@ -1913,10 +1966,10 @@
     </row>
     <row r="16">
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6">
         <v>2.0</v>
@@ -1942,10 +1995,10 @@
     </row>
     <row r="17">
       <c r="B17" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6">
         <v>4.0</v>
@@ -1971,10 +2024,10 @@
     </row>
     <row r="18">
       <c r="B18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="6">
         <v>4.0</v>
@@ -2000,13 +2053,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6">
         <v>1.0</v>
@@ -2032,10 +2085,10 @@
     </row>
     <row r="20">
       <c r="B20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D20" s="6">
         <v>5.0</v>
@@ -2061,10 +2114,10 @@
     </row>
     <row r="21">
       <c r="B21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="6">
         <v>1.0</v>
@@ -2121,22 +2174,22 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="3">
         <v>1.0</v>
@@ -2160,13 +2213,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D3" s="5">
         <v>20.0</v>
@@ -2192,7 +2245,7 @@
     </row>
     <row r="4">
       <c r="B4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2200,10 +2253,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="6">
         <v>30.0</v>
@@ -2232,10 +2285,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5">
         <v>10.0</v>
@@ -2261,10 +2314,10 @@
     </row>
     <row r="7">
       <c r="B7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D7" s="5">
         <v>5.0</v>
@@ -2293,10 +2346,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6">
         <v>15.0</v>
@@ -2325,10 +2378,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6">
         <v>5.0</v>
@@ -2396,21 +2449,21 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="3">
         <v>1.0</v>
@@ -2433,13 +2486,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D3" s="5">
         <v>5.0</v>
@@ -2465,7 +2518,7 @@
     </row>
     <row r="4">
       <c r="B4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2473,10 +2526,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6">
         <v>5.0</v>
@@ -2505,10 +2558,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6">
         <v>10.0</v>
@@ -2537,10 +2590,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5">
         <v>4.0</v>
@@ -2572,7 +2625,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6">
         <v>5.0</v>
@@ -2601,10 +2654,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6">
         <v>5.0</v>
@@ -2630,10 +2683,10 @@
     </row>
     <row r="10">
       <c r="B10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6">
         <v>2.0</v>
@@ -2693,21 +2746,21 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="3">
         <v>1.0</v>
@@ -2733,10 +2786,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6">
         <v>4.0</v>
@@ -2762,10 +2815,10 @@
     </row>
     <row r="4">
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6">
         <v>3.0</v>
@@ -2794,10 +2847,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5">
         <v>5.0</v>
@@ -2823,10 +2876,10 @@
     </row>
     <row r="6">
       <c r="B6" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="5">
         <v>5.0</v>
@@ -2855,10 +2908,10 @@
         <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6">
         <v>4.0</v>
@@ -2890,7 +2943,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6">
         <v>5.0</v>
@@ -2916,13 +2969,13 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6">
         <v>2.0</v>
@@ -2975,21 +3028,21 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="3">
         <v>1.0</v>
@@ -3015,10 +3068,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5">
         <v>15.0</v>
@@ -3044,13 +3097,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6">
         <v>4.0</v>
@@ -3079,10 +3132,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6">
         <v>2.0</v>
@@ -3111,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6">
         <v>2.0</v>
@@ -3140,10 +3193,10 @@
     </row>
     <row r="7">
       <c r="B7" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6">
         <v>4.0</v>
@@ -3169,10 +3222,10 @@
     </row>
     <row r="8">
       <c r="B8" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6">
         <v>4.0</v>
@@ -3198,13 +3251,13 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="D9" s="6">
         <v>1.0</v>
@@ -3256,21 +3309,21 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="3">
         <v>1.0</v>
@@ -3293,13 +3346,13 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="D3" s="5">
         <v>5.0</v>
@@ -3328,10 +3381,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="6">
         <v>2.0</v>
@@ -3357,10 +3410,10 @@
     </row>
     <row r="5">
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6">
         <v>2.0</v>
@@ -3386,10 +3439,10 @@
     </row>
     <row r="6">
       <c r="B6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D6" s="6">
         <v>1.0</v>
@@ -3418,10 +3471,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6">
         <v>8.0</v>
@@ -3447,10 +3500,10 @@
     </row>
     <row r="8">
       <c r="B8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6">
         <v>4.0</v>
@@ -3479,10 +3532,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6">
         <v>5.0</v>
@@ -3508,10 +3561,10 @@
     </row>
     <row r="10">
       <c r="B10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="6">
         <v>2.0</v>
@@ -3568,21 +3621,21 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="3">
         <v>1.0</v>
@@ -3604,14 +3657,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="6">
         <v>2.0</v>
@@ -3639,11 +3692,11 @@
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="D4" s="6">
         <v>7.0</v>
@@ -3654,10 +3707,10 @@
       <c r="F4" s="6">
         <v>5.0</v>
       </c>
-      <c r="G4" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="G4" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="H4" s="6">
         <v>2.0</v>
       </c>
       <c r="I4" s="6">
@@ -3672,10 +3725,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6">
         <v>1.0</v>
@@ -3700,11 +3753,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="15" t="s">
-        <v>103</v>
+      <c r="B6" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6">
         <v>5.0</v>
@@ -3756,21 +3809,21 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="3">
         <v>1.0</v>
@@ -3792,18 +3845,290 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="B5" s="14"/>
+      <c r="B5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="14"/>
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
